--- a/noptien/k179.xlsx
+++ b/noptien/k179.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\learn\noptien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C80EF8D-5F4C-435A-9C9E-7607ADD0E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDE331B-354E-4786-8268-CC6737A73595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="HD" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Hoc_Phi" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoc_Phi!$A$1:$O$176</definedName>
+  </definedNames>
   <calcPr calcId="999999"/>
 </workbook>
 </file>
@@ -3312,6 +3315,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3325,16 +3337,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4960,10 +4963,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51:I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4984,46 +4988,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="69" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
+    <row r="2" spans="1:15" s="51" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="73"/>
       <c r="B2" s="60" t="s">
         <v>27</v>
       </c>
@@ -5039,17 +5043,17 @@
       <c r="F2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-    </row>
-    <row r="3" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+    </row>
+    <row r="3" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>1</v>
       </c>
@@ -5096,7 +5100,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45">
         <v>2</v>
       </c>
@@ -5143,7 +5147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45">
         <v>3</v>
       </c>
@@ -5190,7 +5194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>4</v>
       </c>
@@ -5235,7 +5239,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>5</v>
       </c>
@@ -5282,7 +5286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <v>6</v>
       </c>
@@ -5329,7 +5333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>7</v>
       </c>
@@ -5376,7 +5380,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>8</v>
       </c>
@@ -5423,7 +5427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>9</v>
       </c>
@@ -5470,7 +5474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
         <v>10</v>
       </c>
@@ -5517,7 +5521,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
         <v>11</v>
       </c>
@@ -5564,7 +5568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>12</v>
       </c>
@@ -5611,7 +5615,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>13</v>
       </c>
@@ -5658,7 +5662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45">
         <v>14</v>
       </c>
@@ -5705,7 +5709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
         <v>15</v>
       </c>
@@ -5752,7 +5756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>16</v>
       </c>
@@ -5799,7 +5803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45">
         <v>17</v>
       </c>
@@ -5846,7 +5850,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
         <v>18</v>
       </c>
@@ -5893,7 +5897,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45">
         <v>19</v>
       </c>
@@ -5940,7 +5944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45">
         <v>20</v>
       </c>
@@ -5987,7 +5991,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
         <v>21</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45">
         <v>22</v>
       </c>
@@ -6081,7 +6085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
         <v>23</v>
       </c>
@@ -6128,7 +6132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>24</v>
       </c>
@@ -6175,7 +6179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>25</v>
       </c>
@@ -6222,7 +6226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>26</v>
       </c>
@@ -6269,7 +6273,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
         <v>27</v>
       </c>
@@ -6316,7 +6320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="64" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="64" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45">
         <v>28</v>
       </c>
@@ -6364,7 +6368,7 @@
       </c>
       <c r="P30" s="52"/>
     </row>
-    <row r="31" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
         <v>29</v>
       </c>
@@ -6411,7 +6415,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45">
         <v>30</v>
       </c>
@@ -6458,7 +6462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45">
         <v>31</v>
       </c>
@@ -6505,7 +6509,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45">
         <v>32</v>
       </c>
@@ -6552,7 +6556,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45">
         <v>33</v>
       </c>
@@ -6599,7 +6603,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45">
         <v>34</v>
       </c>
@@ -6646,7 +6650,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45">
         <v>35</v>
       </c>
@@ -6693,7 +6697,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45">
         <v>36</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45">
         <v>37</v>
       </c>
@@ -6787,7 +6791,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45">
         <v>38</v>
       </c>
@@ -6834,7 +6838,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45">
         <v>39</v>
       </c>
@@ -6881,7 +6885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
         <v>40</v>
       </c>
@@ -6928,7 +6932,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45">
         <v>41</v>
       </c>
@@ -6975,7 +6979,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
         <v>42</v>
       </c>
@@ -7022,7 +7026,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45">
         <v>43</v>
       </c>
@@ -7069,7 +7073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
         <v>44</v>
       </c>
@@ -7116,7 +7120,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
         <v>45</v>
       </c>
@@ -7163,7 +7167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>46</v>
       </c>
@@ -7210,7 +7214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45">
         <v>47</v>
       </c>
@@ -7257,7 +7261,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
         <v>48</v>
       </c>
@@ -7445,7 +7449,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45">
         <v>52</v>
       </c>
@@ -7492,7 +7496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45">
         <v>53</v>
       </c>
@@ -7539,7 +7543,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45">
         <v>54</v>
       </c>
@@ -7586,7 +7590,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45">
         <v>55</v>
       </c>
@@ -7633,7 +7637,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45">
         <v>56</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45">
         <v>57</v>
       </c>
@@ -7727,7 +7731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
         <v>58</v>
       </c>
@@ -7774,7 +7778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
         <v>59</v>
       </c>
@@ -7821,7 +7825,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45">
         <v>60</v>
       </c>
@@ -7868,7 +7872,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="45">
         <v>61</v>
       </c>
@@ -7915,7 +7919,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="45">
         <v>62</v>
       </c>
@@ -7962,7 +7966,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45">
         <v>63</v>
       </c>
@@ -8009,7 +8013,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="45">
         <v>64</v>
       </c>
@@ -8056,7 +8060,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="45">
         <v>65</v>
       </c>
@@ -8103,7 +8107,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="45">
         <v>66</v>
       </c>
@@ -8150,7 +8154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="45">
         <v>67</v>
       </c>
@@ -8195,7 +8199,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45">
         <v>68</v>
       </c>
@@ -8242,7 +8246,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="45">
         <v>69</v>
       </c>
@@ -8289,7 +8293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45">
         <v>70</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45">
         <v>71</v>
       </c>
@@ -8383,7 +8387,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="45">
         <v>72</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="45">
         <v>73</v>
       </c>
@@ -8477,7 +8481,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>74</v>
       </c>
@@ -8524,7 +8528,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45">
         <v>75</v>
       </c>
@@ -8571,7 +8575,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="45">
         <v>76</v>
       </c>
@@ -8618,7 +8622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45">
         <v>77</v>
       </c>
@@ -8663,7 +8667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45">
         <v>78</v>
       </c>
@@ -8710,7 +8714,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45">
         <v>79</v>
       </c>
@@ -8757,7 +8761,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45">
         <v>80</v>
       </c>
@@ -8804,7 +8808,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45">
         <v>81</v>
       </c>
@@ -8851,7 +8855,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45">
         <v>82</v>
       </c>
@@ -8898,7 +8902,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="45">
         <v>83</v>
       </c>
@@ -8945,7 +8949,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45">
         <v>84</v>
       </c>
@@ -8992,7 +8996,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45">
         <v>85</v>
       </c>
@@ -9039,7 +9043,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45">
         <v>86</v>
       </c>
@@ -9086,7 +9090,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="45">
         <v>87</v>
       </c>
@@ -9133,7 +9137,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45">
         <v>88</v>
       </c>
@@ -9180,7 +9184,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45">
         <v>89</v>
       </c>
@@ -9227,7 +9231,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45">
         <v>90</v>
       </c>
@@ -9274,7 +9278,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="45">
         <v>91</v>
       </c>
@@ -9321,7 +9325,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="45">
         <v>92</v>
       </c>
@@ -9368,7 +9372,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45">
         <v>93</v>
       </c>
@@ -9415,7 +9419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45">
         <v>94</v>
       </c>
@@ -9462,7 +9466,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="45">
         <v>95</v>
       </c>
@@ -9509,7 +9513,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="45">
         <v>96</v>
       </c>
@@ -9556,7 +9560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="45">
         <v>97</v>
       </c>
@@ -9603,7 +9607,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="45">
         <v>98</v>
       </c>
@@ -9650,7 +9654,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="45">
         <v>99</v>
       </c>
@@ -9697,7 +9701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="45">
         <v>100</v>
       </c>
@@ -9744,7 +9748,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="45">
         <v>101</v>
       </c>
@@ -9791,7 +9795,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="45">
         <v>102</v>
       </c>
@@ -9838,7 +9842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="45">
         <v>103</v>
       </c>
@@ -9885,7 +9889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="45">
         <v>104</v>
       </c>
@@ -9928,7 +9932,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="45">
         <v>105</v>
       </c>
@@ -9975,7 +9979,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="45">
         <v>106</v>
       </c>
@@ -10022,7 +10026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="45">
         <v>107</v>
       </c>
@@ -10069,7 +10073,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="45">
         <v>108</v>
       </c>
@@ -10116,7 +10120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="45">
         <v>109</v>
       </c>
@@ -10163,7 +10167,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="45">
         <v>110</v>
       </c>
@@ -10210,7 +10214,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="45">
         <v>111</v>
       </c>
@@ -10257,7 +10261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45">
         <v>112</v>
       </c>
@@ -10304,7 +10308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="45">
         <v>113</v>
       </c>
@@ -10351,7 +10355,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="45">
         <v>114</v>
       </c>
@@ -10398,7 +10402,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="45">
         <v>115</v>
       </c>
@@ -10445,7 +10449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="45">
         <v>116</v>
       </c>
@@ -10492,7 +10496,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="119" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45">
         <v>117</v>
       </c>
@@ -10539,7 +10543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="45">
         <v>118</v>
       </c>
@@ -10586,7 +10590,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="45">
         <v>119</v>
       </c>
@@ -10633,7 +10637,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="45">
         <v>120</v>
       </c>
@@ -10680,7 +10684,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="123" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="45">
         <v>121</v>
       </c>
@@ -10727,7 +10731,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="124" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="45">
         <v>122</v>
       </c>
@@ -10774,7 +10778,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="45">
         <v>123</v>
       </c>
@@ -10821,7 +10825,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="45">
         <v>124</v>
       </c>
@@ -10868,7 +10872,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="127" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45">
         <v>125</v>
       </c>
@@ -10915,7 +10919,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="128" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="45">
         <v>126</v>
       </c>
@@ -10962,7 +10966,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="129" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="45">
         <v>127</v>
       </c>
@@ -11009,7 +11013,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="130" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="45">
         <v>128</v>
       </c>
@@ -11056,7 +11060,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="131" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="45">
         <v>129</v>
       </c>
@@ -11103,7 +11107,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="132" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="45">
         <v>130</v>
       </c>
@@ -11150,7 +11154,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="133" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="45">
         <v>131</v>
       </c>
@@ -11197,7 +11201,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="134" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="45">
         <v>132</v>
       </c>
@@ -11244,7 +11248,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="135" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45">
         <v>133</v>
       </c>
@@ -11291,7 +11295,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="136" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="45">
         <v>134</v>
       </c>
@@ -11338,7 +11342,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="137" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="45">
         <v>135</v>
       </c>
@@ -11385,7 +11389,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="138" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="45">
         <v>136</v>
       </c>
@@ -11432,7 +11436,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="139" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="45">
         <v>137</v>
       </c>
@@ -11479,7 +11483,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="140" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="45">
         <v>138</v>
       </c>
@@ -11526,7 +11530,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="141" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="45">
         <v>139</v>
       </c>
@@ -11573,7 +11577,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="45">
         <v>140</v>
       </c>
@@ -11620,7 +11624,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="45">
         <v>141</v>
       </c>
@@ -11667,7 +11671,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="144" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="45">
         <v>142</v>
       </c>
@@ -11714,7 +11718,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="145" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="45">
         <v>143</v>
       </c>
@@ -11761,7 +11765,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="146" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="45">
         <v>144</v>
       </c>
@@ -11808,7 +11812,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="147" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="45">
         <v>145</v>
       </c>
@@ -11855,7 +11859,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="148" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="45">
         <v>146</v>
       </c>
@@ -11902,7 +11906,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="149" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="45">
         <v>147</v>
       </c>
@@ -11949,7 +11953,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="150" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="45">
         <v>148</v>
       </c>
@@ -11996,7 +12000,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="151" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="45">
         <v>149</v>
       </c>
@@ -12043,7 +12047,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="152" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="45">
         <v>150</v>
       </c>
@@ -12090,7 +12094,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="153" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="45">
         <v>151</v>
       </c>
@@ -12137,7 +12141,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="154" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="45">
         <v>152</v>
       </c>
@@ -12184,7 +12188,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="155" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="45">
         <v>153</v>
       </c>
@@ -12231,7 +12235,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="156" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="45">
         <v>154</v>
       </c>
@@ -12278,7 +12282,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="45">
         <v>155</v>
       </c>
@@ -12325,7 +12329,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="158" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="45">
         <v>156</v>
       </c>
@@ -12372,7 +12376,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="159" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="45">
         <v>157</v>
       </c>
@@ -12419,7 +12423,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="160" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="45">
         <v>158</v>
       </c>
@@ -12466,7 +12470,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="161" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="45">
         <v>159</v>
       </c>
@@ -12513,7 +12517,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="162" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="45">
         <v>160</v>
       </c>
@@ -12560,7 +12564,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="163" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="45">
         <v>161</v>
       </c>
@@ -12607,7 +12611,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="164" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="45">
         <v>162</v>
       </c>
@@ -12654,7 +12658,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="165" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="45">
         <v>163</v>
       </c>
@@ -12701,7 +12705,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="166" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="45">
         <v>164</v>
       </c>
@@ -12748,7 +12752,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="167" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="45">
         <v>165</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="168" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="45">
         <v>166</v>
       </c>
@@ -12842,7 +12846,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="169" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="45">
         <v>167</v>
       </c>
@@ -12889,7 +12893,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="170" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="45">
         <v>168</v>
       </c>
@@ -12936,7 +12940,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="171" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="45">
         <v>169</v>
       </c>
@@ -12983,7 +12987,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="172" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="45">
         <v>170</v>
       </c>
@@ -13030,7 +13034,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="173" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="45">
         <v>171</v>
       </c>
@@ -13124,7 +13128,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="175" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="45">
         <v>173</v>
       </c>
@@ -13171,7 +13175,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="176" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="45">
         <v>174</v>
       </c>
@@ -13628,18 +13632,29 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:O176" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Dương Tuấn Dũng"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
